--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Queenless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F2EF2E-1817-4AB6-9687-12FDF5A49457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB8BCA0-4D51-42D1-B3FA-B70C35550626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8025" windowWidth="29040" windowHeight="16440" xr2:uid="{B06A1FA5-ABA4-4DCF-A981-BE2B32BAA433}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>KNN</t>
   </si>
@@ -62,24 +62,62 @@
     <t>CQT</t>
   </si>
   <si>
-    <t>CHROMA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>MFCCs</t>
   </si>
   <si>
     <t>STFT</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>MFCC (lib)</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (2048 NFFT)</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (512 NFFT)</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (1024 NFFT)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (256 NFFT)</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (2048 NFFT 96 n_bins)</t>
+  </si>
+  <si>
+    <t>FFTs + CQT (512 NFFT 96 n_bins)</t>
+  </si>
+  <si>
+    <t>BG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -107,9 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,15 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD63CF79-0C81-42AF-B37F-9FF709D62306}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I23" sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +513,17 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -489,7 +543,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -509,9 +563,9 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0.95099999999999996</v>
@@ -529,9 +583,9 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>0.92749999999999999</v>
@@ -549,7 +603,7 @@
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -569,17 +623,425 @@
         <v>0.95530000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.9708</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.9647</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.9153</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.97250000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.9728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="1">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.85540000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.86809999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.87319999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.8105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.8659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.8931</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.87139999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.78590000000000004</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.87209999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.8649</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.8518</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.87170000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.87070000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.8649</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
